--- a/myYolo/yolo_model_structure.xlsx
+++ b/myYolo/yolo_model_structure.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjim/machine_learning/playground/myYolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9C53F5-A1AB-234E-9BE7-ED5ED659FF92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5E61C-9899-BC4D-862D-396CE7C48A25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
+    <workbookView xWindow="11700" yWindow="3120" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="yolo" sheetId="1" r:id="rId1"/>
+    <sheet name="ResNet50" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="282">
   <si>
     <t xml:space="preserve">Layer (type)                     Output Shape          Param #     Connected to                     </t>
   </si>
@@ -280,6 +281,606 @@
   </si>
   <si>
     <t>Non-trainable params: 20,672</t>
+  </si>
+  <si>
+    <t>﻿Model: "ResNet50"</t>
+  </si>
+  <si>
+    <t>__________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer (type)                    Output Shape         Param #     Connected to                     </t>
+  </si>
+  <si>
+    <t>==================================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_1 (InputLayer)            [(None, 64, 64, 3)]  0                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero_padding2d (ZeroPadding2D)  (None, 70, 70, 3)    0           input_1[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv1 (Conv2D)                  (None, 32, 32, 64)   9472        zero_padding2d[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn_conv1 (BatchNormalization)   (None, 32, 32, 64)   256         conv1[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_3 (Activation)       (None, 32, 32, 64)   0           bn_conv1[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d (MaxPooling2D)    (None, 15, 15, 64)   0           activation_3[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2a_branch2a (Conv2D)         (None, 15, 15, 64)   4160        max_pooling2d[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2a_branch2a (BatchNormalizati (None, 15, 15, 64)   256         res2a_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_4 (Activation)       (None, 15, 15, 64)   0           bn2a_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2a_branch2b (Conv2D)         (None, 15, 15, 64)   36928       activation_4[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2a_branch2b (BatchNormalizati (None, 15, 15, 64)   256         res2a_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_5 (Activation)       (None, 15, 15, 64)   0           bn2a_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2a_branch2c (Conv2D)         (None, 15, 15, 256)  16640       activation_5[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2a_branch1 (Conv2D)          (None, 15, 15, 256)  16640       max_pooling2d[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2a_branch2c (BatchNormalizati (None, 15, 15, 256)  1024        res2a_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2a_branch1 (BatchNormalizatio (None, 15, 15, 256)  1024        res2a_branch1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_1 (Add)                     (None, 15, 15, 256)  0           bn2a_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 bn2a_branch1[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_6 (Activation)       (None, 15, 15, 256)  0           add_1[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2b_branch2a (Conv2D)         (None, 15, 15, 64)   16448       activation_6[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2b_branch2a (BatchNormalizati (None, 15, 15, 64)   256         res2b_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_7 (Activation)       (None, 15, 15, 64)   0           bn2b_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2b_branch2b (Conv2D)         (None, 15, 15, 64)   36928       activation_7[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2b_branch2b (BatchNormalizati (None, 15, 15, 64)   256         res2b_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_8 (Activation)       (None, 15, 15, 64)   0           bn2b_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2b_branch2c (Conv2D)         (None, 15, 15, 256)  16640       activation_8[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2b_branch2c (BatchNormalizati (None, 15, 15, 256)  1024        res2b_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_2 (Add)                     (None, 15, 15, 256)  0           bn2b_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_6[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_9 (Activation)       (None, 15, 15, 256)  0           add_2[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2c_branch2a (Conv2D)         (None, 15, 15, 64)   16448       activation_9[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2c_branch2a (BatchNormalizati (None, 15, 15, 64)   256         res2c_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_10 (Activation)      (None, 15, 15, 64)   0           bn2c_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2c_branch2b (Conv2D)         (None, 15, 15, 64)   36928       activation_10[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2c_branch2b (BatchNormalizati (None, 15, 15, 64)   256         res2c_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_11 (Activation)      (None, 15, 15, 64)   0           bn2c_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res2c_branch2c (Conv2D)         (None, 15, 15, 256)  16640       activation_11[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn2c_branch2c (BatchNormalizati (None, 15, 15, 256)  1024        res2c_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_3 (Add)                     (None, 15, 15, 256)  0           bn2c_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_9[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_12 (Activation)      (None, 15, 15, 256)  0           add_3[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3a_branch2a (Conv2D)         (None, 8, 8, 128)    32896       activation_12[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3a_branch2a (BatchNormalizati (None, 8, 8, 128)    512         res3a_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_13 (Activation)      (None, 8, 8, 128)    0           bn3a_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3a_branch2b (Conv2D)         (None, 8, 8, 128)    147584      activation_13[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3a_branch2b (BatchNormalizati (None, 8, 8, 128)    512         res3a_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_14 (Activation)      (None, 8, 8, 128)    0           bn3a_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3a_branch2c (Conv2D)         (None, 8, 8, 512)    66048       activation_14[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3a_branch1 (Conv2D)          (None, 8, 8, 512)    131584      activation_12[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3a_branch2c (BatchNormalizati (None, 8, 8, 512)    2048        res3a_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3a_branch1 (BatchNormalizatio (None, 8, 8, 512)    2048        res3a_branch1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_4 (Add)                     (None, 8, 8, 512)    0           bn3a_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 bn3a_branch1[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_15 (Activation)      (None, 8, 8, 512)    0           add_4[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3b_branch2a (Conv2D)         (None, 8, 8, 128)    65664       activation_15[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3b_branch2a (BatchNormalizati (None, 8, 8, 128)    512         res3b_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_16 (Activation)      (None, 8, 8, 128)    0           bn3b_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3b_branch2b (Conv2D)         (None, 8, 8, 128)    147584      activation_16[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3b_branch2b (BatchNormalizati (None, 8, 8, 128)    512         res3b_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_17 (Activation)      (None, 8, 8, 128)    0           bn3b_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3b_branch2c (Conv2D)         (None, 8, 8, 512)    66048       activation_17[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3b_branch2c (BatchNormalizati (None, 8, 8, 512)    2048        res3b_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_5 (Add)                     (None, 8, 8, 512)    0           bn3b_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_15[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_18 (Activation)      (None, 8, 8, 512)    0           add_5[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3c_branch2a (Conv2D)         (None, 8, 8, 128)    65664       activation_18[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3c_branch2a (BatchNormalizati (None, 8, 8, 128)    512         res3c_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_19 (Activation)      (None, 8, 8, 128)    0           bn3c_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3c_branch2b (Conv2D)         (None, 8, 8, 128)    147584      activation_19[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3c_branch2b (BatchNormalizati (None, 8, 8, 128)    512         res3c_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_20 (Activation)      (None, 8, 8, 128)    0           bn3c_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3c_branch2c (Conv2D)         (None, 8, 8, 512)    66048       activation_20[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3c_branch2c (BatchNormalizati (None, 8, 8, 512)    2048        res3c_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_6 (Add)                     (None, 8, 8, 512)    0           bn3c_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_18[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_21 (Activation)      (None, 8, 8, 512)    0           add_6[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3d_branch2a (Conv2D)         (None, 8, 8, 128)    65664       activation_21[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3d_branch2a (BatchNormalizati (None, 8, 8, 128)    512         res3d_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_22 (Activation)      (None, 8, 8, 128)    0           bn3d_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3d_branch2b (Conv2D)         (None, 8, 8, 128)    147584      activation_22[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3d_branch2b (BatchNormalizati (None, 8, 8, 128)    512         res3d_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_23 (Activation)      (None, 8, 8, 128)    0           bn3d_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res3d_branch2c (Conv2D)         (None, 8, 8, 512)    66048       activation_23[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn3d_branch2c (BatchNormalizati (None, 8, 8, 512)    2048        res3d_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_7 (Add)                     (None, 8, 8, 512)    0           bn3d_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_21[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_24 (Activation)      (None, 8, 8, 512)    0           add_7[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4a_branch2a (Conv2D)         (None, 4, 4, 256)    131328      activation_24[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4a_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4a_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_25 (Activation)      (None, 4, 4, 256)    0           bn4a_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4a_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_25[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4a_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4a_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_26 (Activation)      (None, 4, 4, 256)    0           bn4a_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4a_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_26[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4a_branch1 (Conv2D)          (None, 4, 4, 1024)   525312      activation_24[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4a_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4a_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4a_branch1 (BatchNormalizatio (None, 4, 4, 1024)   4096        res4a_branch1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_8 (Add)                     (None, 4, 4, 1024)   0           bn4a_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 bn4a_branch1[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_27 (Activation)      (None, 4, 4, 1024)   0           add_8[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4b_branch2a (Conv2D)         (None, 4, 4, 256)    262400      activation_27[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4b_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4b_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_28 (Activation)      (None, 4, 4, 256)    0           bn4b_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4b_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_28[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4b_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4b_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_29 (Activation)      (None, 4, 4, 256)    0           bn4b_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4b_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_29[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4b_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4b_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_9 (Add)                     (None, 4, 4, 1024)   0           bn4b_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_27[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_30 (Activation)      (None, 4, 4, 1024)   0           add_9[0][0]                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4c_branch2a (Conv2D)         (None, 4, 4, 256)    262400      activation_30[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4c_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4c_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_31 (Activation)      (None, 4, 4, 256)    0           bn4c_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4c_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_31[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4c_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4c_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_32 (Activation)      (None, 4, 4, 256)    0           bn4c_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4c_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_32[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4c_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4c_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_10 (Add)                    (None, 4, 4, 1024)   0           bn4c_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_30[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_33 (Activation)      (None, 4, 4, 1024)   0           add_10[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4d_branch2a (Conv2D)         (None, 4, 4, 256)    262400      activation_33[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4d_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4d_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_34 (Activation)      (None, 4, 4, 256)    0           bn4d_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4d_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_34[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4d_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4d_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_35 (Activation)      (None, 4, 4, 256)    0           bn4d_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4d_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_35[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4d_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4d_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_11 (Add)                    (None, 4, 4, 1024)   0           bn4d_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_33[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_36 (Activation)      (None, 4, 4, 1024)   0           add_11[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4e_branch2a (Conv2D)         (None, 4, 4, 256)    262400      activation_36[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4e_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4e_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_37 (Activation)      (None, 4, 4, 256)    0           bn4e_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4e_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_37[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4e_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4e_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_38 (Activation)      (None, 4, 4, 256)    0           bn4e_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4e_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_38[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4e_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4e_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_12 (Add)                    (None, 4, 4, 1024)   0           bn4e_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_36[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_39 (Activation)      (None, 4, 4, 1024)   0           add_12[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4f_branch2a (Conv2D)         (None, 4, 4, 256)    262400      activation_39[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4f_branch2a (BatchNormalizati (None, 4, 4, 256)    1024        res4f_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_40 (Activation)      (None, 4, 4, 256)    0           bn4f_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4f_branch2b (Conv2D)         (None, 4, 4, 256)    590080      activation_40[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4f_branch2b (BatchNormalizati (None, 4, 4, 256)    1024        res4f_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_41 (Activation)      (None, 4, 4, 256)    0           bn4f_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res4f_branch2c (Conv2D)         (None, 4, 4, 1024)   263168      activation_41[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn4f_branch2c (BatchNormalizati (None, 4, 4, 1024)   4096        res4f_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_13 (Add)                    (None, 4, 4, 1024)   0           bn4f_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_39[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_42 (Activation)      (None, 4, 4, 1024)   0           add_13[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5a_branch2a (Conv2D)         (None, 2, 2, 512)    524800      activation_42[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5a_branch2a (BatchNormalizati (None, 2, 2, 512)    2048        res5a_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_43 (Activation)      (None, 2, 2, 512)    0           bn5a_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5a_branch2b (Conv2D)         (None, 2, 2, 512)    2359808     activation_43[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5a_branch2b (BatchNormalizati (None, 2, 2, 512)    2048        res5a_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_44 (Activation)      (None, 2, 2, 512)    0           bn5a_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5a_branch2c (Conv2D)         (None, 2, 2, 2048)   1050624     activation_44[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5a_branch1 (Conv2D)          (None, 2, 2, 2048)   2099200     activation_42[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5a_branch2c (BatchNormalizati (None, 2, 2, 2048)   8192        res5a_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5a_branch1 (BatchNormalizatio (None, 2, 2, 2048)   8192        res5a_branch1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_14 (Add)                    (None, 2, 2, 2048)   0           bn5a_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 bn5a_branch1[0][0]               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_45 (Activation)      (None, 2, 2, 2048)   0           add_14[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5b_branch2a (Conv2D)         (None, 2, 2, 512)    1049088     activation_45[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5b_branch2a (BatchNormalizati (None, 2, 2, 512)    2048        res5b_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_46 (Activation)      (None, 2, 2, 512)    0           bn5b_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5b_branch2b (Conv2D)         (None, 2, 2, 512)    2359808     activation_46[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5b_branch2b (BatchNormalizati (None, 2, 2, 512)    2048        res5b_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_47 (Activation)      (None, 2, 2, 512)    0           bn5b_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5b_branch2c (Conv2D)         (None, 2, 2, 2048)   1050624     activation_47[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5b_branch2c (BatchNormalizati (None, 2, 2, 2048)   8192        res5b_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_15 (Add)                    (None, 2, 2, 2048)   0           bn5b_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_45[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_48 (Activation)      (None, 2, 2, 2048)   0           add_15[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5c_branch2a (Conv2D)         (None, 2, 2, 512)    1049088     activation_48[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5c_branch2a (BatchNormalizati (None, 2, 2, 512)    2048        res5c_branch2a[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_49 (Activation)      (None, 2, 2, 512)    0           bn5c_branch2a[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5c_branch2b (Conv2D)         (None, 2, 2, 512)    2359808     activation_49[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5c_branch2b (BatchNormalizati (None, 2, 2, 512)    2048        res5c_branch2b[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_50 (Activation)      (None, 2, 2, 512)    0           bn5c_branch2b[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">res5c_branch2c (Conv2D)         (None, 2, 2, 2048)   1050624     activation_50[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn5c_branch2c (BatchNormalizati (None, 2, 2, 2048)   8192        res5c_branch2c[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_16 (Add)                    (None, 2, 2, 2048)   0           bn5c_branch2c[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 activation_48[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation_51 (Activation)      (None, 2, 2, 2048)   0           add_16[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_pool (AveragePooling2D)     (None, 1, 1, 2048)   0           activation_51[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatten (Flatten)               (None, 2048)         0           avg_pool[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc6 (Dense)                     (None, 6)            12294       flatten[0][0]                    </t>
+  </si>
+  <si>
+    <t>Total params: 23,600,006</t>
+  </si>
+  <si>
+    <t>Trainable params: 23,546,886</t>
+  </si>
+  <si>
+    <t>Non-trainable params: 53,120</t>
   </si>
 </sst>
 </file>
@@ -640,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570F18DD-C56D-2744-AF81-6FC5BB220752}">
   <dimension ref="D5:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,4 +2035,1909 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A231949-5EF3-9E4B-A3AE-A6471FA618E7}">
+  <dimension ref="B4:B381"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/myYolo/yolo_model_structure.xlsx
+++ b/myYolo/yolo_model_structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjim/machine_learning/playground/myYolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5E61C-9899-BC4D-862D-396CE7C48A25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F31532-D3C2-164F-B8E7-0A10121243B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="3120" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
+    <workbookView xWindow="-13860" yWindow="-18900" windowWidth="27640" windowHeight="16940" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
   </bookViews>
   <sheets>
     <sheet name="yolo" sheetId="1" r:id="rId1"/>
@@ -902,12 +902,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -922,9 +928,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,27 +1247,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570F18DD-C56D-2744-AF81-6FC5BB220752}">
-  <dimension ref="D5:D161"/>
+  <dimension ref="D1:D157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1269,7 +1301,7 @@
     </row>
     <row r="9" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1279,7 +1311,7 @@
     </row>
     <row r="11" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1289,7 +1321,7 @@
     </row>
     <row r="13" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1299,7 +1331,7 @@
     </row>
     <row r="15" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1309,7 +1341,7 @@
     </row>
     <row r="17" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1319,7 +1351,7 @@
     </row>
     <row r="19" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1329,7 +1361,7 @@
     </row>
     <row r="21" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1339,7 +1371,7 @@
     </row>
     <row r="23" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1349,7 +1381,7 @@
     </row>
     <row r="25" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1359,7 +1391,7 @@
     </row>
     <row r="27" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1369,7 +1401,7 @@
     </row>
     <row r="29" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1379,7 +1411,7 @@
     </row>
     <row r="31" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1389,7 +1421,7 @@
     </row>
     <row r="33" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1399,7 +1431,7 @@
     </row>
     <row r="35" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1409,7 +1441,7 @@
     </row>
     <row r="37" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1419,7 +1451,7 @@
     </row>
     <row r="39" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1429,7 +1461,7 @@
     </row>
     <row r="41" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1439,7 +1471,7 @@
     </row>
     <row r="43" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1449,7 +1481,7 @@
     </row>
     <row r="45" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1459,7 +1491,7 @@
     </row>
     <row r="47" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1469,7 +1501,7 @@
     </row>
     <row r="49" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1479,7 +1511,7 @@
     </row>
     <row r="51" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1489,7 +1521,7 @@
     </row>
     <row r="53" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1499,7 +1531,7 @@
     </row>
     <row r="55" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1509,7 +1541,7 @@
     </row>
     <row r="57" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1519,7 +1551,7 @@
     </row>
     <row r="59" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1529,7 +1561,7 @@
     </row>
     <row r="61" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1539,7 +1571,7 @@
     </row>
     <row r="63" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1549,7 +1581,7 @@
     </row>
     <row r="65" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1559,7 +1591,7 @@
     </row>
     <row r="67" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1569,7 +1601,7 @@
     </row>
     <row r="69" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1579,7 +1611,7 @@
     </row>
     <row r="71" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1589,7 +1621,7 @@
     </row>
     <row r="73" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1599,7 +1631,7 @@
     </row>
     <row r="75" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1609,7 +1641,7 @@
     </row>
     <row r="77" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1619,7 +1651,7 @@
     </row>
     <row r="79" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1629,7 +1661,7 @@
     </row>
     <row r="81" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1639,7 +1671,7 @@
     </row>
     <row r="83" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1649,7 +1681,7 @@
     </row>
     <row r="85" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1659,7 +1691,7 @@
     </row>
     <row r="87" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1669,7 +1701,7 @@
     </row>
     <row r="89" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D89" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1679,7 +1711,7 @@
     </row>
     <row r="91" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1689,7 +1721,7 @@
     </row>
     <row r="93" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D93" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1699,7 +1731,7 @@
     </row>
     <row r="95" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D95" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1709,7 +1741,7 @@
     </row>
     <row r="97" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1719,7 +1751,7 @@
     </row>
     <row r="99" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D99" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1729,7 +1761,7 @@
     </row>
     <row r="101" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1739,7 +1771,7 @@
     </row>
     <row r="103" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1749,7 +1781,7 @@
     </row>
     <row r="105" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1759,7 +1791,7 @@
     </row>
     <row r="107" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1769,7 +1801,7 @@
     </row>
     <row r="109" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1779,7 +1811,7 @@
     </row>
     <row r="111" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1789,7 +1821,7 @@
     </row>
     <row r="113" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1799,7 +1831,7 @@
     </row>
     <row r="115" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D115" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1809,7 +1841,7 @@
     </row>
     <row r="117" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D117" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1819,7 +1851,7 @@
     </row>
     <row r="119" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1829,7 +1861,7 @@
     </row>
     <row r="121" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1839,7 +1871,7 @@
     </row>
     <row r="123" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D123" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1849,7 +1881,7 @@
     </row>
     <row r="125" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1859,7 +1891,7 @@
     </row>
     <row r="127" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D127" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1869,7 +1901,7 @@
     </row>
     <row r="129" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D129" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1879,7 +1911,7 @@
     </row>
     <row r="131" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1889,7 +1921,7 @@
     </row>
     <row r="133" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1899,7 +1931,7 @@
     </row>
     <row r="135" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D135" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1909,7 +1941,7 @@
     </row>
     <row r="137" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D137" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1917,9 +1949,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D139" s="1" t="s">
-        <v>69</v>
+    <row r="139" spans="4:4" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="D139" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1929,7 +1961,7 @@
     </row>
     <row r="141" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1939,32 +1971,32 @@
     </row>
     <row r="143" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D143" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D144" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D145" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D146" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D147" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1974,7 +2006,7 @@
     </row>
     <row r="150" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="4:4" ht="19" x14ac:dyDescent="0.25">
@@ -1984,51 +2016,31 @@
     </row>
     <row r="152" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D153" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D154" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D155" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D156" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="4:4" ht="19" x14ac:dyDescent="0.25">
       <c r="D157" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D158" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="160" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D160" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D161" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2041,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A231949-5EF3-9E4B-A3AE-A6471FA618E7}">
   <dimension ref="B4:B381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/myYolo/yolo_model_structure.xlsx
+++ b/myYolo/yolo_model_structure.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjim/machine_learning/playground/myYolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F31532-D3C2-164F-B8E7-0A10121243B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD9F8C1-2D8D-0C42-A675-BEB90A023228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13860" yWindow="-18900" windowWidth="27640" windowHeight="16940" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
+    <workbookView xWindow="-26260" yWindow="-20900" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
   </bookViews>
   <sheets>
     <sheet name="yolo" sheetId="1" r:id="rId1"/>
     <sheet name="ResNet50" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1247,800 +1248,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570F18DD-C56D-2744-AF81-6FC5BB220752}">
-  <dimension ref="D1:D157"/>
+  <dimension ref="B1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="4" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+    <row r="6" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+    <row r="8" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+    <row r="10" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+    <row r="12" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="14" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="16" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    <row r="18" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+    <row r="20" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    <row r="22" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
+    <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+    <row r="26" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
+    <row r="28" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+    <row r="30" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+    <row r="32" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+    <row r="34" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+    <row r="36" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+    <row r="38" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
+    <row r="40" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+    <row r="42" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
+    <row r="44" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+    <row r="46" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+    <row r="48" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D51" s="1" t="s">
+    <row r="50" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
+    <row r="52" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+    <row r="54" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
+    <row r="56" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
+    <row r="58" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    <row r="60" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
+    <row r="62" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+    <row r="64" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+    <row r="66" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
+    <row r="68" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D71" s="1" t="s">
+    <row r="70" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
+    <row r="72" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
+    <row r="74" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D77" s="1" t="s">
+    <row r="76" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D79" s="1" t="s">
+    <row r="78" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D81" s="1" t="s">
+    <row r="80" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
+    <row r="82" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D85" s="1" t="s">
+    <row r="84" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D87" s="1" t="s">
+    <row r="86" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
+    <row r="88" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
+    <row r="90" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D93" s="1" t="s">
+    <row r="92" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D94" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
+    <row r="94" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+    <row r="96" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D99" s="1" t="s">
+    <row r="98" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D100" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
+    <row r="100" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D103" s="1" t="s">
+    <row r="102" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D105" s="1" t="s">
+    <row r="104" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D107" s="1" t="s">
+    <row r="106" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+    <row r="108" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D110" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D111" s="1" t="s">
+    <row r="110" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D112" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D113" s="1" t="s">
+    <row r="112" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D114" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D115" s="1" t="s">
+    <row r="114" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D116" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D117" s="1" t="s">
+    <row r="116" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D118" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
+    <row r="118" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D120" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
+    <row r="120" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D123" s="1" t="s">
+    <row r="122" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D124" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D125" s="1" t="s">
+    <row r="124" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D126" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D127" s="1" t="s">
+    <row r="126" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D128" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D129" s="1" t="s">
+    <row r="128" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D130" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D131" s="1" t="s">
+    <row r="130" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D132" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D133" s="1" t="s">
+    <row r="132" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D135" s="1" t="s">
+    <row r="134" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D136" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D137" s="1" t="s">
+    <row r="136" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="D139" s="2" t="s">
+    <row r="138" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D140" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D141" s="1" t="s">
+    <row r="140" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D143" s="1" t="s">
+    <row r="142" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D144" s="1" t="s">
+    <row r="144" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
+    <row r="145" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D148" s="1" t="s">
+    <row r="147" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D150" s="1" t="s">
+    <row r="149" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D151" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
+    <row r="151" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D153" s="1" t="s">
+    <row r="153" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
+    <row r="154" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D155" s="1" t="s">
+    <row r="155" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D156" s="1" t="s">
+    <row r="156" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D157" s="1" t="s">
+    <row r="157" spans="2:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3952,4 +3953,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61041479-DF82-E14D-8FDC-9A8C832D7870}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/myYolo/yolo_model_structure.xlsx
+++ b/myYolo/yolo_model_structure.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunjim/machine_learning/playground/myYolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD9F8C1-2D8D-0C42-A675-BEB90A023228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D8A10-BF10-CF4E-B6FC-4974241DCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26260" yWindow="-20900" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
+    <workbookView xWindow="3020" yWindow="2480" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{F17986B6-8B85-8D41-8DD7-D1262351D502}"/>
   </bookViews>
   <sheets>
     <sheet name="yolo" sheetId="1" r:id="rId1"/>
     <sheet name="ResNet50" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="model_with_loss" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="369">
   <si>
     <t xml:space="preserve">Layer (type)                     Output Shape          Param #     Connected to                     </t>
   </si>
@@ -882,6 +882,267 @@
   </si>
   <si>
     <t>Non-trainable params: 53,120</t>
+  </si>
+  <si>
+    <t>﻿__________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_1 (InputLayer)            [(None, 416, 416, 3) 0                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d (Conv2D)                 (None, 416, 416, 32) 864         input_1[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization (BatchNorma (None, 416, 416, 32) 128         conv2d[0][0]                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu (LeakyReLU)         (None, 416, 416, 32) 0           batch_normalization[0][0]        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d (MaxPooling2D)    (None, 208, 208, 32) 0           leaky_re_lu[0][0]                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_1 (Conv2D)               (None, 208, 208, 64) 18432       max_pooling2d[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_1 (BatchNor (None, 208, 208, 64) 256         conv2d_1[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_1 (LeakyReLU)       (None, 208, 208, 64) 0           batch_normalization_1[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d_1 (MaxPooling2D)  (None, 104, 104, 64) 0           leaky_re_lu_1[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_2 (Conv2D)               (None, 104, 104, 128 73728       max_pooling2d_1[0][0]            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_2 (BatchNor (None, 104, 104, 128 512         conv2d_2[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_2 (LeakyReLU)       (None, 104, 104, 128 0           batch_normalization_2[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_3 (Conv2D)               (None, 104, 104, 64) 8192        leaky_re_lu_2[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_3 (BatchNor (None, 104, 104, 64) 256         conv2d_3[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_3 (LeakyReLU)       (None, 104, 104, 64) 0           batch_normalization_3[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_4 (Conv2D)               (None, 104, 104, 128 73728       leaky_re_lu_3[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_4 (BatchNor (None, 104, 104, 128 512         conv2d_4[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_4 (LeakyReLU)       (None, 104, 104, 128 0           batch_normalization_4[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d_2 (MaxPooling2D)  (None, 52, 52, 128)  0           leaky_re_lu_4[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_5 (Conv2D)               (None, 52, 52, 256)  294912      max_pooling2d_2[0][0]            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_5 (BatchNor (None, 52, 52, 256)  1024        conv2d_5[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_5 (LeakyReLU)       (None, 52, 52, 256)  0           batch_normalization_5[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_6 (Conv2D)               (None, 52, 52, 128)  32768       leaky_re_lu_5[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_6 (BatchNor (None, 52, 52, 128)  512         conv2d_6[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_6 (LeakyReLU)       (None, 52, 52, 128)  0           batch_normalization_6[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_7 (Conv2D)               (None, 52, 52, 256)  294912      leaky_re_lu_6[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_7 (BatchNor (None, 52, 52, 256)  1024        conv2d_7[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_7 (LeakyReLU)       (None, 52, 52, 256)  0           batch_normalization_7[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d_3 (MaxPooling2D)  (None, 26, 26, 256)  0           leaky_re_lu_7[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_8 (Conv2D)               (None, 26, 26, 512)  1179648     max_pooling2d_3[0][0]            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_8 (BatchNor (None, 26, 26, 512)  2048        conv2d_8[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_8 (LeakyReLU)       (None, 26, 26, 512)  0           batch_normalization_8[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_9 (Conv2D)               (None, 26, 26, 256)  131072      leaky_re_lu_8[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_9 (BatchNor (None, 26, 26, 256)  1024        conv2d_9[0][0]                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_9 (LeakyReLU)       (None, 26, 26, 256)  0           batch_normalization_9[0][0]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_10 (Conv2D)              (None, 26, 26, 512)  1179648     leaky_re_lu_9[0][0]              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_10 (BatchNo (None, 26, 26, 512)  2048        conv2d_10[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_10 (LeakyReLU)      (None, 26, 26, 512)  0           batch_normalization_10[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_11 (Conv2D)              (None, 26, 26, 256)  131072      leaky_re_lu_10[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_11 (BatchNo (None, 26, 26, 256)  1024        conv2d_11[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_11 (LeakyReLU)      (None, 26, 26, 256)  0           batch_normalization_11[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_12 (Conv2D)              (None, 26, 26, 512)  1179648     leaky_re_lu_11[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_12 (BatchNo (None, 26, 26, 512)  2048        conv2d_12[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_12 (LeakyReLU)      (None, 26, 26, 512)  0           batch_normalization_12[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pooling2d_4 (MaxPooling2D)  (None, 13, 13, 512)  0           leaky_re_lu_12[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_13 (Conv2D)              (None, 13, 13, 1024) 4718592     max_pooling2d_4[0][0]            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_13 (BatchNo (None, 13, 13, 1024) 4096        conv2d_13[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_13 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_13[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_14 (Conv2D)              (None, 13, 13, 512)  524288      leaky_re_lu_13[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_14 (BatchNo (None, 13, 13, 512)  2048        conv2d_14[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_14 (LeakyReLU)      (None, 13, 13, 512)  0           batch_normalization_14[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_15 (Conv2D)              (None, 13, 13, 1024) 4718592     leaky_re_lu_14[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_15 (BatchNo (None, 13, 13, 1024) 4096        conv2d_15[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_15 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_15[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_16 (Conv2D)              (None, 13, 13, 512)  524288      leaky_re_lu_15[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_16 (BatchNo (None, 13, 13, 512)  2048        conv2d_16[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_16 (LeakyReLU)      (None, 13, 13, 512)  0           batch_normalization_16[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_17 (Conv2D)              (None, 13, 13, 1024) 4718592     leaky_re_lu_16[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_17 (BatchNo (None, 13, 13, 1024) 4096        conv2d_17[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_17 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_17[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_18 (Conv2D)              (None, 13, 13, 1024) 9437184     leaky_re_lu_17[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_18 (BatchNo (None, 13, 13, 1024) 4096        conv2d_18[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_20 (Conv2D)              (None, 26, 26, 64)   32768       leaky_re_lu_12[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_18 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_18[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_20 (BatchNo (None, 26, 26, 64)   256         conv2d_20[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_19 (Conv2D)              (None, 13, 13, 1024) 9437184     leaky_re_lu_18[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_20 (LeakyReLU)      (None, 26, 26, 64)   0           batch_normalization_20[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_19 (BatchNo (None, 13, 13, 1024) 4096        conv2d_19[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda_space_depth (Lambda)     (None, 13, 13, 256)  0           leaky_re_lu_20[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_19 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_19[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">concatenate (Concatenate)       (None, 13, 13, 1280) 0           Lambda_space_depth[0][0]         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 leaky_re_lu_19[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_21 (Conv2D)              (None, 13, 13, 1024) 11796480    concatenate[0][0]                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_normalization_21 (BatchNo (None, 13, 13, 1024) 4096        conv2d_21[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky_re_lu_21 (LeakyReLU)      (None, 13, 13, 1024) 0           batch_normalization_21[0][0]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conv2d_23 (Conv2D)              (None, 13, 13, 125)  128125      leaky_re_lu_21[0][0]             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_2 (InputLayer)            [(None, None, 5)]    0                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_3 (InputLayer)            [(None, 13, 13, 5, 1 0                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_4 (InputLayer)            [(None, 13, 13, 5, 5 0                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yolo_loss (Lambda)              ()                   0           conv2d_23[0][0]                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 input_2[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 input_3[0][0]                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 input_4[0][0]                    </t>
+  </si>
+  <si>
+    <t>Total params: 50,676,061</t>
+  </si>
+  <si>
+    <t>Trainable params: 128,125</t>
+  </si>
+  <si>
+    <t>Non-trainable params: 50,547,936</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570F18DD-C56D-2744-AF81-6FC5BB220752}">
   <dimension ref="B1:B157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
@@ -3957,12 +4218,860 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61041479-DF82-E14D-8FDC-9A8C832D7870}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>